--- a/GEOTRACES/mapping_CTD_SE.xlsx
+++ b/GEOTRACES/mapping_CTD_SE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aponsero/Documents/UA_POSTDOC/projects/Planet_Microbe/Planet_Microbe_data/planet-microbe-datapackages/GEOTRACES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C45D76-9970-5146-83F0-3C069943B701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89323EA2-271D-5449-A3B2-46CB8BF88617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13760" xr2:uid="{99C5DDCE-E5C5-B349-BA72-F2D0A54A9767}"/>
   </bookViews>
@@ -1821,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538EB227-B356-A244-BF11-6DB2CBC5CB72}">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B116" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:F131"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1896,23 +1896,23 @@
         <v>49.722000000000001</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>396</v>
+      <c r="I2" s="3">
+        <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="K2" s="4">
-        <v>40308</v>
+        <v>40677</v>
       </c>
       <c r="L2" s="5">
-        <v>0.38055555555555554</v>
+        <v>0.45375000000000004</v>
       </c>
       <c r="M2" s="3">
-        <v>317.55288999999999</v>
+        <v>153.50139999999999</v>
       </c>
       <c r="N2" s="3">
-        <v>49.721499999999999</v>
+        <v>-29.99804</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1935,23 +1935,23 @@
         <v>47.8</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" s="7">
-        <v>40308</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.50902777777777775</v>
-      </c>
-      <c r="M3" s="6">
-        <v>317.55327999999997</v>
-      </c>
-      <c r="N3" s="6">
-        <v>49.722499999999997</v>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K3" s="4">
+        <v>40677</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.11127314814814815</v>
+      </c>
+      <c r="M3" s="3">
+        <v>153.70688999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-28.976780000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1974,23 +1974,23 @@
         <v>46.311900000000001</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="7">
-        <v>40309</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="M4" s="6">
-        <v>320.60030999999998</v>
-      </c>
-      <c r="N4" s="6">
-        <v>47.8</v>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="4">
+        <v>40678</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.18780092592592593</v>
+      </c>
+      <c r="M4" s="3">
+        <v>153.95854</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-30.017710000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2013,23 +2013,23 @@
         <v>37.534500000000001</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>402</v>
+      <c r="I5" s="3">
+        <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="K5" s="4">
-        <v>40309</v>
+        <v>40678</v>
       </c>
       <c r="L5" s="5">
-        <v>0.55972222222222223</v>
+        <v>3.636574074074074E-2</v>
       </c>
       <c r="M5" s="3">
-        <v>320.60100999999997</v>
+        <v>154.00540000000001</v>
       </c>
       <c r="N5" s="3">
-        <v>47.800699999999999</v>
+        <v>-30.00357</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2052,23 +2052,23 @@
         <v>36.205100000000002</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="K6" s="7">
-        <v>40309</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.69652777777777775</v>
-      </c>
-      <c r="M6" s="6">
-        <v>320.60059000000001</v>
-      </c>
-      <c r="N6" s="6">
-        <v>47.799399999999999</v>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" s="4">
+        <v>40678</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.70326388888888891</v>
+      </c>
+      <c r="M6" s="3">
+        <v>155.01353</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-29.996919999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2091,23 +2091,23 @@
         <v>34.3307</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="K7" s="7">
-        <v>40309</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0.8208333333333333</v>
-      </c>
-      <c r="M7" s="6">
-        <v>320.6001</v>
-      </c>
-      <c r="N7" s="6">
-        <v>47.8001</v>
+      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="4">
+        <v>40679</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.72621527777777783</v>
+      </c>
+      <c r="M7" s="3">
+        <v>156.00023999999999</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-30.000419999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2129,23 +2129,23 @@
       <c r="F8">
         <v>33.433399999999999</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>393</v>
+      <c r="I8" s="3">
+        <v>7</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="K8" s="4">
-        <v>40310</v>
+        <v>40680</v>
       </c>
       <c r="L8" s="5">
-        <v>0.71875</v>
+        <v>0.10964120370370371</v>
       </c>
       <c r="M8" s="3">
-        <v>320.34118999999998</v>
+        <v>156.99378999999999</v>
       </c>
       <c r="N8" s="3">
-        <v>46.311900000000001</v>
+        <v>-30.001329999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2167,23 +2167,23 @@
       <c r="F9">
         <v>31.666799999999999</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>400</v>
+      <c r="I9" s="3">
+        <v>8</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="K9" s="4">
-        <v>40310</v>
+        <v>40680</v>
       </c>
       <c r="L9" s="5">
-        <v>0.86041666666666661</v>
+        <v>0.46695601851851848</v>
       </c>
       <c r="M9" s="3">
-        <v>320.34201000000002</v>
+        <v>158.00179</v>
       </c>
       <c r="N9" s="3">
-        <v>46.311999999999998</v>
+        <v>-29.99841</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2205,23 +2205,23 @@
       <c r="F10">
         <v>28.090699999999998</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>392</v>
+      <c r="I10" s="3">
+        <v>9</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="K10" s="4">
-        <v>40317</v>
+        <v>40680</v>
       </c>
       <c r="L10" s="5">
-        <v>0.42777777777777781</v>
+        <v>0.79973379629629626</v>
       </c>
       <c r="M10" s="3">
-        <v>309.1293</v>
+        <v>159.00241</v>
       </c>
       <c r="N10" s="3">
-        <v>37.523600000000002</v>
+        <v>-29.998809999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2243,23 +2243,23 @@
       <c r="F11">
         <v>24.714400000000001</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>391</v>
+      <c r="I11" s="3">
+        <v>11</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="K11" s="4">
-        <v>40318</v>
+        <v>40682</v>
       </c>
       <c r="L11" s="5">
-        <v>0.42152777777777778</v>
+        <v>0.27868055555555554</v>
       </c>
       <c r="M11" s="3">
-        <v>306.68610000000001</v>
+        <v>161.99986000000001</v>
       </c>
       <c r="N11" s="3">
-        <v>36.203499999999998</v>
+        <v>-29.99738</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2281,23 +2281,23 @@
       <c r="F12">
         <v>22.340900000000001</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>399</v>
+      <c r="I12" s="3">
+        <v>12</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="K12" s="4">
-        <v>40318</v>
+        <v>40682</v>
       </c>
       <c r="L12" s="5">
-        <v>0.5625</v>
+        <v>0.63403935185185178</v>
       </c>
       <c r="M12" s="3">
-        <v>306.7319</v>
+        <v>162.99876</v>
       </c>
       <c r="N12" s="3">
-        <v>36.206699999999998</v>
+        <v>-30.001280000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2319,23 +2319,23 @@
       <c r="F13">
         <v>16.831</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>390</v>
+      <c r="I13" s="3">
+        <v>15</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="K13" s="4">
-        <v>40319</v>
+        <v>40684</v>
       </c>
       <c r="L13" s="5">
-        <v>0.42083333333333334</v>
+        <v>0.35812500000000003</v>
       </c>
       <c r="M13" s="3">
-        <v>304.58260999999999</v>
+        <v>166.00292999999999</v>
       </c>
       <c r="N13" s="3">
-        <v>34.333799999999997</v>
+        <v>-29.99905</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2357,23 +2357,23 @@
       <c r="F14">
         <v>13.162000000000001</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>398</v>
+      <c r="I14" s="3">
+        <v>16</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="K14" s="4">
-        <v>40319</v>
+        <v>40684</v>
       </c>
       <c r="L14" s="5">
-        <v>0.5625</v>
+        <v>0.36659722222222224</v>
       </c>
       <c r="M14" s="3">
-        <v>304.56839000000002</v>
+        <v>166.00403</v>
       </c>
       <c r="N14" s="3">
-        <v>34.3277</v>
+        <v>-29.997150000000001</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2395,23 +2395,23 @@
       <c r="F15">
         <v>9.5458999999999996</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>389</v>
+      <c r="I15" s="3">
+        <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="K15" s="4">
-        <v>40320</v>
+        <v>40684</v>
       </c>
       <c r="L15" s="5">
-        <v>0.42499999999999999</v>
+        <v>0.63920138888888889</v>
       </c>
       <c r="M15" s="3">
-        <v>301.95001000000002</v>
+        <v>167.00042999999999</v>
       </c>
       <c r="N15" s="3">
-        <v>33.433399999999999</v>
+        <v>-30.000889999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2433,23 +2433,23 @@
       <c r="F16">
         <v>24.002199999999998</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>397</v>
+      <c r="I16" s="3">
+        <v>21</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="K16" s="4">
-        <v>40320</v>
+        <v>40686</v>
       </c>
       <c r="L16" s="5">
-        <v>0.54652777777777783</v>
+        <v>0.4962847222222222</v>
       </c>
       <c r="M16" s="3">
-        <v>301.94970999999998</v>
+        <v>170.99788000000001</v>
       </c>
       <c r="N16" s="3">
-        <v>33.433399999999999</v>
+        <v>-29.997810000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -2471,23 +2471,23 @@
       <c r="F17">
         <v>17.3538</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>417</v>
+      <c r="I17" s="3">
+        <v>22</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="K17" s="4">
-        <v>40342</v>
+        <v>40686</v>
       </c>
       <c r="L17" s="5">
-        <v>3.6805555555555557E-2</v>
+        <v>0.854375</v>
       </c>
       <c r="M17" s="3">
-        <v>295.83301</v>
+        <v>171.99994000000001</v>
       </c>
       <c r="N17" s="3">
-        <v>31.666699999999999</v>
+        <v>-29.999459999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -2509,23 +2509,23 @@
       <c r="F18">
         <v>17.401800000000001</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>410</v>
+      <c r="I18" s="3">
+        <v>23</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="K18" s="4">
-        <v>40342</v>
+        <v>40687</v>
       </c>
       <c r="L18" s="5">
-        <v>0.15763888888888888</v>
+        <v>0.2508333333333333</v>
       </c>
       <c r="M18" s="3">
-        <v>295.83319</v>
+        <v>172.99978999999999</v>
       </c>
       <c r="N18" s="3">
-        <v>31.666799999999999</v>
+        <v>-29.999749999999999</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -2547,23 +2547,23 @@
       <c r="F19">
         <v>-49.547199999999997</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>416</v>
+      <c r="I19" s="3">
+        <v>24</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="K19" s="4">
-        <v>40342</v>
+        <v>40687</v>
       </c>
       <c r="L19" s="5">
-        <v>0.64513888888888882</v>
+        <v>0.58988425925925925</v>
       </c>
       <c r="M19" s="3">
-        <v>295.83362</v>
+        <v>174.00291000000001</v>
       </c>
       <c r="N19" s="3">
-        <v>31.667100000000001</v>
+        <v>-30.003499999999999</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -2585,23 +2585,23 @@
       <c r="F20">
         <v>-48.894199999999998</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>409</v>
+      <c r="I20" s="3">
+        <v>25</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="K20" s="4">
-        <v>40344</v>
+        <v>40688</v>
       </c>
       <c r="L20" s="5">
-        <v>0.47916666666666669</v>
+        <v>1.8043981481481484E-2</v>
       </c>
       <c r="M20" s="3">
-        <v>292.49840999999998</v>
+        <v>175.00033999999999</v>
       </c>
       <c r="N20" s="3">
-        <v>28.090900000000001</v>
+        <v>-30.000769999999999</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2623,23 +2623,23 @@
       <c r="F21">
         <v>-46.92</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>408</v>
+      <c r="I21" s="3">
+        <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="K21" s="4">
-        <v>40346</v>
+        <v>40688</v>
       </c>
       <c r="L21" s="5">
-        <v>0.68125000000000002</v>
+        <v>0.77976851851851858</v>
       </c>
       <c r="M21" s="3">
-        <v>292.92719</v>
+        <v>175.99985000000001</v>
       </c>
       <c r="N21" s="3">
-        <v>24.714500000000001</v>
+        <v>-29.9998</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2661,23 +2661,23 @@
       <c r="F22">
         <v>-44.706800000000001</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>415</v>
+      <c r="I22" s="3">
+        <v>28</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="K22" s="4">
-        <v>40346</v>
+        <v>40689</v>
       </c>
       <c r="L22" s="5">
-        <v>0.8305555555555556</v>
+        <v>0.18894675925925927</v>
       </c>
       <c r="M22" s="3">
-        <v>292.92739999999998</v>
+        <v>176.99952999999999</v>
       </c>
       <c r="N22" s="3">
-        <v>24.714300000000001</v>
+        <v>-30.599689999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2699,23 +2699,23 @@
       <c r="F23">
         <v>-42.371299999999998</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>407</v>
+      <c r="I23" s="3">
+        <v>29</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="K23" s="4">
-        <v>40348</v>
+        <v>40689</v>
       </c>
       <c r="L23" s="5">
-        <v>0.74513888888888891</v>
+        <v>0.9000462962962964</v>
       </c>
       <c r="M23" s="3">
-        <v>296.41660000000002</v>
+        <v>178.00163000000001</v>
       </c>
       <c r="N23" s="3">
-        <v>22.340699999999998</v>
+        <v>-31.59808</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -2737,23 +2737,23 @@
       <c r="F24">
         <v>-39.963200000000001</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>414</v>
+      <c r="I24" s="3">
+        <v>32</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="K24" s="4">
-        <v>40348</v>
+        <v>40691</v>
       </c>
       <c r="L24" s="5">
-        <v>0.90555555555555556</v>
+        <v>0.44233796296296296</v>
       </c>
       <c r="M24" s="3">
-        <v>296.41669000000002</v>
+        <v>-178.99933999999999</v>
       </c>
       <c r="N24" s="3">
-        <v>22.341100000000001</v>
+        <v>-32.500109999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2775,23 +2775,23 @@
       <c r="F25">
         <v>-37.839799999999997</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>406</v>
+      <c r="I25" s="3">
+        <v>33</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="K25" s="4">
-        <v>40353</v>
+        <v>40691</v>
       </c>
       <c r="L25" s="5">
-        <v>0.4694444444444445</v>
+        <v>0.76107638888888884</v>
       </c>
       <c r="M25" s="3">
-        <v>303.7312</v>
+        <v>-177.99857</v>
       </c>
       <c r="N25" s="3">
-        <v>16.8308</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -2813,23 +2813,23 @@
       <c r="F26">
         <v>-35.008800000000001</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>413</v>
+      <c r="I26" s="3">
+        <v>34</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="K26" s="4">
-        <v>40353</v>
+        <v>40692</v>
       </c>
       <c r="L26" s="5">
-        <v>0.62916666666666665</v>
+        <v>0.10645833333333332</v>
       </c>
       <c r="M26" s="3">
-        <v>303.73151000000001</v>
+        <v>-176.99677</v>
       </c>
       <c r="N26" s="3">
-        <v>16.831199999999999</v>
+        <v>-32.500950000000003</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2851,23 +2851,23 @@
       <c r="F27">
         <v>-32.089399999999998</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>405</v>
+      <c r="I27" s="3">
+        <v>35</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>225</v>
+        <v>319</v>
       </c>
       <c r="K27" s="4">
-        <v>40355</v>
+        <v>40692</v>
       </c>
       <c r="L27" s="5">
-        <v>0.38055555555555554</v>
+        <v>0.64853009259259264</v>
       </c>
       <c r="M27" s="3">
-        <v>306.57927999999998</v>
+        <v>-175.99721</v>
       </c>
       <c r="N27" s="3">
-        <v>13.1616</v>
+        <v>-32.500250000000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2889,23 +2889,23 @@
       <c r="F28">
         <v>-29.0579</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>412</v>
+      <c r="I28" s="3">
+        <v>40</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="K28" s="4">
-        <v>40355</v>
+        <v>40695</v>
       </c>
       <c r="L28" s="5">
-        <v>0.51736111111111105</v>
+        <v>0.80518518518518523</v>
       </c>
       <c r="M28" s="3">
-        <v>306.57848999999999</v>
+        <v>-172.99987999999999</v>
       </c>
       <c r="N28" s="3">
-        <v>13.1623</v>
+        <v>-32.5002</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2927,23 +2927,23 @@
       <c r="F29">
         <v>-26.089099999999998</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>404</v>
+      <c r="I29" s="3">
+        <v>39</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="K29" s="4">
-        <v>40357</v>
+        <v>40695</v>
       </c>
       <c r="L29" s="5">
-        <v>0.46458333333333335</v>
+        <v>0.47990740740740739</v>
       </c>
       <c r="M29" s="3">
-        <v>309.53140000000002</v>
+        <v>-171.99878000000001</v>
       </c>
       <c r="N29" s="3">
-        <v>9.5456000000000003</v>
+        <v>-32.500309999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2965,23 +2965,23 @@
       <c r="F30">
         <v>-22.471499999999999</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>411</v>
+      <c r="I30" s="3">
+        <v>7003</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="K30" s="4">
-        <v>40357</v>
+        <v>40704</v>
       </c>
       <c r="L30" s="5">
-        <v>0.59444444444444444</v>
+        <v>0.96734953703703708</v>
       </c>
       <c r="M30" s="3">
-        <v>309.53140000000002</v>
+        <v>-171.994</v>
       </c>
       <c r="N30" s="3">
-        <v>9.5462000000000007</v>
+        <v>-32.4955</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -3003,23 +3003,23 @@
       <c r="F31">
         <v>-17.0168</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>423</v>
+      <c r="I31" s="3">
+        <v>38</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
       <c r="K31" s="4">
-        <v>40475</v>
+        <v>40695</v>
       </c>
       <c r="L31" s="5">
-        <v>0.41041666666666665</v>
+        <v>0.16070601851851851</v>
       </c>
       <c r="M31" s="3">
-        <v>338</v>
+        <v>-171.00098</v>
       </c>
       <c r="N31" s="3">
-        <v>24</v>
+        <v>-32.500079999999997</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -3041,23 +3041,23 @@
       <c r="F32">
         <v>-12.894</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>432</v>
+      <c r="I32" s="3">
+        <v>7004</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="K32" s="4">
-        <v>40475</v>
+        <v>40705</v>
       </c>
       <c r="L32" s="5">
-        <v>0.4680555555555555</v>
+        <v>0.45</v>
       </c>
       <c r="M32" s="3">
-        <v>337.99991</v>
+        <v>-170.99529999999999</v>
       </c>
       <c r="N32" s="3">
-        <v>24.0001</v>
+        <v>-32.496699999999997</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -3079,23 +3079,23 @@
       <c r="F33">
         <v>-9.1541499999999996</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>431</v>
+      <c r="I33" s="3">
+        <v>37</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="K33" s="4">
-        <v>40475</v>
+        <v>40694</v>
       </c>
       <c r="L33" s="5">
-        <v>0.78541666666666676</v>
+        <v>0.71386574074074083</v>
       </c>
       <c r="M33" s="3">
-        <v>338.00391000000002</v>
+        <v>-169.99956</v>
       </c>
       <c r="N33" s="3">
-        <v>24.0032</v>
+        <v>-32.4998</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -3117,23 +3117,23 @@
       <c r="F34">
         <v>-5.6769999999999996</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>422</v>
+      <c r="I34" s="3">
+        <v>7005</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="K34" s="4">
-        <v>40475</v>
+        <v>40705</v>
       </c>
       <c r="L34" s="5">
-        <v>0.84583333333333333</v>
+        <v>0.85069444444444453</v>
       </c>
       <c r="M34" s="3">
-        <v>338.00400000000002</v>
+        <v>-169.99519000000001</v>
       </c>
       <c r="N34" s="3">
-        <v>24.0032</v>
+        <v>-32.493699999999997</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -3155,23 +3155,23 @@
       <c r="F35">
         <v>-2.6511499999999999</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>430</v>
+      <c r="I35" s="3">
+        <v>7006</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="K35" s="4">
-        <v>40475</v>
+        <v>40706</v>
       </c>
       <c r="L35" s="5">
-        <v>0.99444444444444446</v>
+        <v>0.80971064814814808</v>
       </c>
       <c r="M35" s="3">
-        <v>338.00339000000002</v>
+        <v>-169.00229999999999</v>
       </c>
       <c r="N35" s="3">
-        <v>24.0032</v>
+        <v>-32.499000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3193,23 +3193,23 @@
       <c r="F36">
         <v>-0.18715000000000001</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>421</v>
+      <c r="I36" s="3">
+        <v>7007</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="K36" s="4">
-        <v>40481</v>
+        <v>40707</v>
       </c>
       <c r="L36" s="5">
-        <v>8.6111111111111124E-2</v>
+        <v>0.20762731481481481</v>
       </c>
       <c r="M36" s="3">
-        <v>339.185</v>
+        <v>-168.00200000000001</v>
       </c>
       <c r="N36" s="3">
-        <v>17.351700000000001</v>
+        <v>-32.494999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3231,23 +3231,23 @@
       <c r="F37">
         <v>-29.998200000000001</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>429</v>
+      <c r="I37" s="3">
+        <v>7008</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="K37" s="4">
-        <v>40481</v>
+        <v>40707</v>
       </c>
       <c r="L37" s="5">
-        <v>0.12916666666666668</v>
+        <v>0.65068287037037031</v>
       </c>
       <c r="M37" s="3">
-        <v>339.18329</v>
+        <v>-167.00219999999999</v>
       </c>
       <c r="N37" s="3">
-        <v>17.351600000000001</v>
+        <v>-32.497199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3269,23 +3269,23 @@
       <c r="F38">
         <v>-30.001899999999999</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>428</v>
+      <c r="I38" s="3">
+        <v>7009</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="K38" s="4">
-        <v>40481</v>
+        <v>40708</v>
       </c>
       <c r="L38" s="5">
-        <v>0.41944444444444445</v>
+        <v>3.4027777777777775E-2</v>
       </c>
       <c r="M38" s="3">
-        <v>339.17639000000003</v>
+        <v>-165.99879000000001</v>
       </c>
       <c r="N38" s="3">
-        <v>17.3521</v>
+        <v>-32.4985</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3307,23 +3307,23 @@
       <c r="F39">
         <v>-30.000599999999999</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>420</v>
+      <c r="I39" s="3">
+        <v>7010</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="K39" s="4">
-        <v>40481</v>
+        <v>40708</v>
       </c>
       <c r="L39" s="5">
-        <v>0.4826388888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M39" s="3">
-        <v>339.17340000000002</v>
+        <v>-164.99229</v>
       </c>
       <c r="N39" s="3">
-        <v>17.353200000000001</v>
+        <v>-32.495699999999999</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3345,23 +3345,23 @@
       <c r="F40">
         <v>-29.9999</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>427</v>
+      <c r="I40" s="3">
+        <v>7011</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="K40" s="4">
-        <v>40481</v>
+        <v>40709</v>
       </c>
       <c r="L40" s="5">
-        <v>0.61111111111111105</v>
+        <v>0.1986111111111111</v>
       </c>
       <c r="M40" s="3">
-        <v>339.17388999999997</v>
+        <v>-163.9897</v>
       </c>
       <c r="N40" s="3">
-        <v>17.360199999999999</v>
+        <v>-32.504300000000001</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3383,23 +3383,23 @@
       <c r="F41">
         <v>-30.000599999999999</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>419</v>
+      <c r="I41" s="3">
+        <v>7012</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="K41" s="4">
-        <v>40484</v>
+        <v>40709</v>
       </c>
       <c r="L41" s="5">
-        <v>0.3347222222222222</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="M41" s="3">
-        <v>335.50020999999998</v>
+        <v>-162.99350000000001</v>
       </c>
       <c r="N41" s="3">
-        <v>17.399799999999999</v>
+        <v>-32.506300000000003</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -3421,23 +3421,23 @@
       <c r="F42">
         <v>-30</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>426</v>
+      <c r="I42" s="3">
+        <v>7013</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="K42" s="4">
-        <v>40484</v>
+        <v>40710</v>
       </c>
       <c r="L42" s="5">
-        <v>0.37847222222222227</v>
+        <v>0.40763888888888888</v>
       </c>
       <c r="M42" s="3">
-        <v>335.50020999999998</v>
+        <v>-162.00899999999999</v>
       </c>
       <c r="N42" s="3">
-        <v>17.399799999999999</v>
+        <v>-32.509</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3459,23 +3459,23 @@
       <c r="F43">
         <v>-29.999700000000001</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>425</v>
+      <c r="I43" s="3">
+        <v>7014</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="K43" s="4">
-        <v>40484</v>
+        <v>40710</v>
       </c>
       <c r="L43" s="5">
-        <v>0.71875</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="M43" s="3">
-        <v>335.50378000000001</v>
+        <v>-160.99279999999999</v>
       </c>
       <c r="N43" s="3">
-        <v>17.404</v>
+        <v>-32.497799999999998</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3497,23 +3497,23 @@
       <c r="F44">
         <v>-30.001300000000001</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>418</v>
+      <c r="I44" s="3">
+        <v>7015</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="K44" s="4">
-        <v>40484</v>
+        <v>40711</v>
       </c>
       <c r="L44" s="5">
-        <v>0.76041666666666663</v>
+        <v>0.17776620370370369</v>
       </c>
       <c r="M44" s="3">
-        <v>335.50378000000001</v>
+        <v>-160.0078</v>
       </c>
       <c r="N44" s="3">
-        <v>17.404</v>
+        <v>-32.510300000000001</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -3535,23 +3535,23 @@
       <c r="F45">
         <v>-30.0002</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>424</v>
+      <c r="I45" s="3">
+        <v>7016</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="K45" s="4">
-        <v>40484</v>
+        <v>40711</v>
       </c>
       <c r="L45" s="5">
-        <v>0.91111111111111109</v>
+        <v>0.57915509259259257</v>
       </c>
       <c r="M45" s="3">
-        <v>335.50378000000001</v>
+        <v>-159.01929999999999</v>
       </c>
       <c r="N45" s="3">
-        <v>17.404</v>
+        <v>-32.463700000000003</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3573,23 +3573,23 @@
       <c r="F46">
         <v>-31.598800000000001</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>368</v>
+      <c r="I46" s="3">
+        <v>7017</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="K46" s="4">
-        <v>40607</v>
+        <v>40712</v>
       </c>
       <c r="L46" s="5">
-        <v>0.75</v>
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="M46" s="3">
-        <v>307.31232</v>
+        <v>-157.99450999999999</v>
       </c>
       <c r="N46" s="3">
-        <v>-49.546799999999998</v>
+        <v>-32.494999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3611,23 +3611,23 @@
       <c r="F47">
         <v>-32.499499999999998</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>388</v>
+      <c r="I47" s="3">
+        <v>7018</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>208</v>
+        <v>339</v>
       </c>
       <c r="K47" s="4">
-        <v>40607</v>
+        <v>40712</v>
       </c>
       <c r="L47" s="5">
-        <v>0.87222222222222223</v>
+        <v>0.94027777777777777</v>
       </c>
       <c r="M47" s="3">
-        <v>307.31148999999999</v>
+        <v>-157.00880000000001</v>
       </c>
       <c r="N47" s="3">
-        <v>-49.547499999999999</v>
+        <v>-32.494</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -3649,23 +3649,23 @@
       <c r="F48">
         <v>-32.499499999999998</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>367</v>
+      <c r="I48" s="3">
+        <v>7019</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>187</v>
+        <v>340</v>
       </c>
       <c r="K48" s="4">
-        <v>40608</v>
+        <v>40713</v>
       </c>
       <c r="L48" s="5">
-        <v>0.63055555555555554</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="M48" s="3">
-        <v>311.12099999999998</v>
+        <v>-156.01070000000001</v>
       </c>
       <c r="N48" s="3">
-        <v>-48.967500000000001</v>
+        <v>-32.503799999999998</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -3687,23 +3687,23 @@
       <c r="F49">
         <v>-32.500100000000003</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>387</v>
+      <c r="I49" s="3">
+        <v>7020</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>207</v>
+        <v>341</v>
       </c>
       <c r="K49" s="4">
-        <v>40608</v>
+        <v>40713</v>
       </c>
       <c r="L49" s="5">
-        <v>0.81944444444444453</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="M49" s="3">
-        <v>311.20670000000001</v>
+        <v>-154.99930000000001</v>
       </c>
       <c r="N49" s="3">
-        <v>-48.9358</v>
+        <v>-32.499499999999998</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -3725,23 +3725,23 @@
       <c r="F50">
         <v>-32.4998</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>386</v>
+      <c r="I50" s="3">
+        <v>7021</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="K50" s="4">
-        <v>40610</v>
+        <v>40714</v>
       </c>
       <c r="L50" s="5">
-        <v>0.13958333333333334</v>
+        <v>0.26944444444444443</v>
       </c>
       <c r="M50" s="3">
-        <v>312.82098000000002</v>
+        <v>-153.9982</v>
       </c>
       <c r="N50" s="3">
-        <v>-46.906999999999996</v>
+        <v>-32.501300000000001</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -3763,23 +3763,23 @@
       <c r="F51" s="6">
         <v>-32.492699999999999</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>366</v>
+      <c r="I51" s="3">
+        <v>7022</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="K51" s="4">
-        <v>40610</v>
+        <v>40715</v>
       </c>
       <c r="L51" s="5">
-        <v>0.98749999999999993</v>
+        <v>4.2361111111111106E-2</v>
       </c>
       <c r="M51" s="3">
-        <v>314.45427999999998</v>
+        <v>-153.00570999999999</v>
       </c>
       <c r="N51" s="3">
-        <v>-44.701999999999998</v>
+        <v>-32.494</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -3801,23 +3801,23 @@
       <c r="F52">
         <v>-32.4923</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>385</v>
+      <c r="I52" s="3">
+        <v>7023</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K52" s="4">
-        <v>40611</v>
+        <v>40715</v>
       </c>
       <c r="L52" s="5">
-        <v>0.14027777777777778</v>
+        <v>0.50207175925925929</v>
       </c>
       <c r="M52" s="3">
-        <v>314.47350999999998</v>
+        <v>-151.99950000000001</v>
       </c>
       <c r="N52" s="3">
-        <v>-44.7117</v>
+        <v>-32.488500000000002</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3839,23 +3839,23 @@
       <c r="F53">
         <v>-32.497700000000002</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K53" s="4">
-        <v>40611</v>
-      </c>
-      <c r="L53" s="5">
-        <v>0.96805555555555556</v>
-      </c>
-      <c r="M53" s="3">
-        <v>315.98018999999999</v>
-      </c>
-      <c r="N53" s="3">
-        <v>-42.378500000000003</v>
+      <c r="I53" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K53" s="7">
+        <v>40854</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="M53" s="6">
+        <v>-69.818600000000004</v>
+      </c>
+      <c r="N53" s="6">
+        <v>39.701700000000002</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -3878,22 +3878,22 @@
         <v>-32.4955</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="K54" s="4">
-        <v>40612</v>
+        <v>40854</v>
       </c>
       <c r="L54" s="5">
-        <v>0.11319444444444444</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="M54" s="3">
-        <v>315.96820000000002</v>
+        <v>-69.810999999999979</v>
       </c>
       <c r="N54" s="3">
-        <v>-42.363999999999997</v>
+        <v>39.686500000000002</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3915,23 +3915,23 @@
       <c r="F55">
         <v>-32.495100000000001</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K55" s="4">
-        <v>40612</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="M55" s="3">
-        <v>317.51229999999998</v>
-      </c>
-      <c r="N55" s="3">
-        <v>-39.968499999999999</v>
+      <c r="I55" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K55" s="7">
+        <v>40854</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0.91180555555555554</v>
+      </c>
+      <c r="M55" s="6">
+        <v>-69.807309999999973</v>
+      </c>
+      <c r="N55" s="6">
+        <v>39.670099999999998</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3953,23 +3953,23 @@
       <c r="F56">
         <v>-32.494599999999998</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K56" s="4">
-        <v>40613</v>
-      </c>
-      <c r="L56" s="5">
-        <v>9.5138888888888884E-2</v>
-      </c>
-      <c r="M56" s="3">
-        <v>317.57681000000002</v>
-      </c>
-      <c r="N56" s="3">
-        <v>-39.964799999999997</v>
+      <c r="I56" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K56" s="7">
+        <v>40854</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="M56" s="6">
+        <v>-69.800779999999975</v>
+      </c>
+      <c r="N56" s="6">
+        <v>39.700200000000002</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3991,23 +3991,23 @@
       <c r="F57">
         <v>-32.503700000000002</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K57" s="4">
-        <v>40613</v>
-      </c>
-      <c r="L57" s="5">
-        <v>0.3444444444444445</v>
-      </c>
-      <c r="M57" s="3">
-        <v>317.65399000000002</v>
-      </c>
-      <c r="N57" s="3">
-        <v>-39.956800000000001</v>
+      <c r="I57" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="K57" s="7">
+        <v>40854</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="M57" s="6">
+        <v>-69.790009999999995</v>
+      </c>
+      <c r="N57" s="6">
+        <v>39.696800000000003</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -4029,23 +4029,23 @@
       <c r="F58">
         <v>-32.505499999999998</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K58" s="4">
-        <v>40614</v>
-      </c>
-      <c r="L58" s="5">
-        <v>8.0555555555555561E-2</v>
-      </c>
-      <c r="M58" s="3">
-        <v>318.87518</v>
-      </c>
-      <c r="N58" s="3">
-        <v>-37.830500000000001</v>
+      <c r="I58" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K58" s="7">
+        <v>40858</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="M58" s="6">
+        <v>-69.143010000000004</v>
+      </c>
+      <c r="N58" s="6">
+        <v>38.650599999999997</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -4067,23 +4067,23 @@
       <c r="F59">
         <v>-32.503900000000002</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K59" s="4">
-        <v>40614</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0.24236111111111111</v>
-      </c>
-      <c r="M59" s="3">
-        <v>318.86950999999999</v>
-      </c>
-      <c r="N59" s="3">
-        <v>-37.838200000000001</v>
+      <c r="I59" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K59" s="7">
+        <v>40858</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="M59" s="6">
+        <v>-69.111210000000028</v>
+      </c>
+      <c r="N59" s="6">
+        <v>38.671100000000003</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4106,22 +4106,22 @@
         <v>-32.508000000000003</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="K60" s="4">
-        <v>40614</v>
+        <v>40858</v>
       </c>
       <c r="L60" s="5">
-        <v>0.38819444444444445</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="M60" s="3">
-        <v>318.86182000000002</v>
+        <v>-69.101200000000006</v>
       </c>
       <c r="N60" s="3">
-        <v>-37.852200000000003</v>
+        <v>38.674300000000002</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4144,22 +4144,22 @@
         <v>-32.500799999999998</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>361</v>
+        <v>468</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="K61" s="4">
-        <v>40615</v>
+        <v>40860</v>
       </c>
       <c r="L61" s="5">
-        <v>0.37986111111111115</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="M61" s="3">
-        <v>320.5575</v>
+        <v>-68.869599999999991</v>
       </c>
       <c r="N61" s="3">
-        <v>-35.008299999999998</v>
+        <v>38.3187</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4181,23 +4181,23 @@
       <c r="F62">
         <v>-32.5075</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K62" s="4">
-        <v>40615</v>
-      </c>
-      <c r="L62" s="5">
-        <v>0.57152777777777775</v>
-      </c>
-      <c r="M62" s="3">
-        <v>320.56900000000002</v>
-      </c>
-      <c r="N62" s="3">
-        <v>-35.009300000000003</v>
+      <c r="I62" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K62" s="7">
+        <v>40860</v>
+      </c>
+      <c r="L62" s="8">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="M62" s="6">
+        <v>-68.86020000000002</v>
+      </c>
+      <c r="N62" s="6">
+        <v>38.345700000000001</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4219,23 +4219,23 @@
       <c r="F63">
         <v>-32.479799999999997</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K63" s="4">
-        <v>40616</v>
-      </c>
-      <c r="L63" s="5">
-        <v>0.65138888888888891</v>
-      </c>
-      <c r="M63" s="3">
-        <v>322.53671000000003</v>
-      </c>
-      <c r="N63" s="3">
-        <v>-32.085999999999999</v>
+      <c r="I63" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="K63" s="7">
+        <v>40860</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="M63" s="6">
+        <v>-68.714290000000005</v>
+      </c>
+      <c r="N63" s="6">
+        <v>38.0807</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -4257,23 +4257,23 @@
       <c r="F64">
         <v>-32.496899999999997</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K64" s="4">
-        <v>40616</v>
-      </c>
-      <c r="L64" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="M64" s="3">
-        <v>322.5437</v>
-      </c>
-      <c r="N64" s="3">
-        <v>-32.091999999999999</v>
+      <c r="I64" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K64" s="7">
+        <v>40860</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="M64" s="6">
+        <v>-68.702699999999993</v>
+      </c>
+      <c r="N64" s="6">
+        <v>38.086199999999998</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -4296,1287 +4296,1283 @@
         <v>-32.494399999999999</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="K65" s="4">
-        <v>40617</v>
+        <v>40861</v>
       </c>
       <c r="L65" s="5">
-        <v>0.85972222222222217</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="M65" s="3">
-        <v>324.21579000000003</v>
+        <v>-68.412989999999979</v>
       </c>
       <c r="N65" s="3">
-        <v>-29.062000000000001</v>
+        <v>37.599699999999999</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I66" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K66" s="4">
-        <v>40617</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0.98611111111111116</v>
-      </c>
-      <c r="M66" s="3">
-        <v>324.19220000000001</v>
-      </c>
-      <c r="N66" s="3">
-        <v>-29.053799999999999</v>
+      <c r="I66" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K66" s="7">
+        <v>40861</v>
+      </c>
+      <c r="L66" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M66" s="6">
+        <v>-68.38751000000002</v>
+      </c>
+      <c r="N66" s="6">
+        <v>37.613799999999998</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I67" s="3" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="K67" s="4">
-        <v>40619</v>
+        <v>40344</v>
       </c>
       <c r="L67" s="5">
-        <v>2.361111111111111E-2</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="M67" s="3">
-        <v>325.74151999999998</v>
+        <v>-67.501590000000022</v>
       </c>
       <c r="N67" s="3">
-        <v>-26.0867</v>
+        <v>28.090900000000001</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I68" s="3" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="K68" s="4">
-        <v>40619</v>
+        <v>40346</v>
       </c>
       <c r="L68" s="5">
-        <v>0.18333333333333335</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="M68" s="3">
-        <v>325.71881000000002</v>
+        <v>-67.072810000000004</v>
       </c>
       <c r="N68" s="3">
-        <v>-26.090199999999999</v>
+        <v>24.714500000000001</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I69" s="3" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="K69" s="4">
-        <v>40619</v>
+        <v>40346</v>
       </c>
       <c r="L69" s="5">
-        <v>0.34027777777777773</v>
+        <v>0.8305555555555556</v>
       </c>
       <c r="M69" s="3">
-        <v>325.69970999999998</v>
+        <v>-67.072600000000023</v>
       </c>
       <c r="N69" s="3">
-        <v>-26.090499999999999</v>
+        <v>24.714300000000001</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I70" s="3" t="s">
-        <v>357</v>
+        <v>464</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="K70" s="4">
-        <v>40620</v>
+        <v>40863</v>
       </c>
       <c r="L70" s="5">
-        <v>0.44444444444444442</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="M70" s="3">
-        <v>327.26778999999999</v>
+        <v>-66.639499999999998</v>
       </c>
       <c r="N70" s="3">
-        <v>-22.471499999999999</v>
+        <v>35.426299999999998</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I71" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K71" s="4">
-        <v>40620</v>
-      </c>
-      <c r="L71" s="5">
-        <v>0.59444444444444444</v>
-      </c>
-      <c r="M71" s="3">
-        <v>327.25130999999999</v>
-      </c>
-      <c r="N71" s="3">
-        <v>-22.473199999999999</v>
+      <c r="I71" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K71" s="7">
+        <v>40863</v>
+      </c>
+      <c r="L71" s="8">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="M71" s="6">
+        <v>-66.54079999999999</v>
+      </c>
+      <c r="N71" s="6">
+        <v>35.416200000000003</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I72" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K72" s="4">
-        <v>40620</v>
-      </c>
-      <c r="L72" s="5">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="M72" s="3">
-        <v>327.24898999999999</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-22.4693</v>
+      <c r="I72" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K72" s="7">
+        <v>40863</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="M72" s="6">
+        <v>-66.520600000000002</v>
+      </c>
+      <c r="N72" s="6">
+        <v>35.4176</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I73" s="3" t="s">
-        <v>355</v>
+        <v>462</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="K73" s="4">
-        <v>40622</v>
+        <v>40867</v>
       </c>
       <c r="L73" s="5">
-        <v>0.47222222222222227</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="M73" s="3">
-        <v>329.40679999999998</v>
+        <v>-64.185000000000002</v>
       </c>
       <c r="N73" s="3">
-        <v>-17.016200000000001</v>
+        <v>31.739899999999999</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I74" s="3" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="K74" s="4">
-        <v>40622</v>
+        <v>40342</v>
       </c>
       <c r="L74" s="5">
-        <v>0.62083333333333335</v>
+        <v>3.6805555555555557E-2</v>
       </c>
       <c r="M74" s="3">
-        <v>329.39481000000001</v>
+        <v>-64.166989999999998</v>
       </c>
       <c r="N74" s="3">
-        <v>-17.017299999999999</v>
+        <v>31.666699999999999</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I75" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K75" s="4">
-        <v>40623</v>
-      </c>
-      <c r="L75" s="5">
-        <v>0.91527777777777775</v>
-      </c>
-      <c r="M75" s="3">
-        <v>330.78030000000001</v>
-      </c>
-      <c r="N75" s="3">
-        <v>-12.891299999999999</v>
+      <c r="I75" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K75" s="7">
+        <v>40867</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="M75" s="6">
+        <v>-64.166899999999998</v>
+      </c>
+      <c r="N75" s="6">
+        <v>31.749600000000001</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I76" s="3" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="K76" s="4">
-        <v>40625</v>
+        <v>40342</v>
       </c>
       <c r="L76" s="5">
-        <v>0.30555555555555552</v>
+        <v>0.15763888888888888</v>
       </c>
       <c r="M76" s="3">
-        <v>332.00119000000001</v>
+        <v>-64.166809999999998</v>
       </c>
       <c r="N76" s="3">
-        <v>-9.1475000000000009</v>
+        <v>31.666799999999999</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I77" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K77" s="4">
-        <v>40625</v>
-      </c>
-      <c r="L77" s="5">
-        <v>0.46597222222222223</v>
-      </c>
-      <c r="M77" s="3">
-        <v>331.99880999999999</v>
-      </c>
-      <c r="N77" s="3">
-        <v>-9.1608000000000001</v>
+      <c r="I77" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K77" s="7">
+        <v>40867</v>
+      </c>
+      <c r="L77" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="M77" s="6">
+        <v>-64.166690000000017</v>
+      </c>
+      <c r="N77" s="6">
+        <v>31.75</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I78" s="3" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="K78" s="4">
-        <v>40626</v>
+        <v>40342</v>
       </c>
       <c r="L78" s="5">
-        <v>0.53749999999999998</v>
+        <v>0.64513888888888882</v>
       </c>
       <c r="M78" s="3">
-        <v>331.54279000000002</v>
+        <v>-64.166380000000004</v>
       </c>
       <c r="N78" s="3">
-        <v>-5.6666999999999996</v>
+        <v>31.667100000000001</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I79" s="3" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="K79" s="4">
-        <v>40626</v>
+        <v>40348</v>
       </c>
       <c r="L79" s="5">
-        <v>0.68888888888888899</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="M79" s="3">
-        <v>331.54050000000001</v>
+        <v>-63.583399999999983</v>
       </c>
       <c r="N79" s="3">
-        <v>-5.6768000000000001</v>
+        <v>22.340699999999998</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I80" s="3" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="K80" s="4">
-        <v>40626</v>
+        <v>40348</v>
       </c>
       <c r="L80" s="5">
-        <v>0.84236111111111101</v>
+        <v>0.90555555555555556</v>
       </c>
       <c r="M80" s="3">
-        <v>331.53600999999998</v>
+        <v>-63.583309999999983</v>
       </c>
       <c r="N80" s="3">
-        <v>-5.6890000000000001</v>
+        <v>22.341100000000001</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.2">
       <c r="I81" s="3" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="K81" s="4">
-        <v>40627</v>
+        <v>40320</v>
       </c>
       <c r="L81" s="5">
-        <v>0.7368055555555556</v>
+        <v>0.54652777777777783</v>
       </c>
       <c r="M81" s="3">
-        <v>331.08801</v>
+        <v>-58.050290000000018</v>
       </c>
       <c r="N81" s="3">
-        <v>-2.6385000000000001</v>
+        <v>33.433399999999999</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.2">
       <c r="I82" s="3" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K82" s="4">
-        <v>40627</v>
+        <v>40320</v>
       </c>
       <c r="L82" s="5">
-        <v>0.88055555555555554</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="M82" s="3">
-        <v>331.08278999999999</v>
+        <v>-58.04998999999998</v>
       </c>
       <c r="N82" s="3">
-        <v>-2.6505000000000001</v>
+        <v>33.433399999999999</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.2">
       <c r="I83" s="3" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="K83" s="4">
-        <v>40629</v>
+        <v>40353</v>
       </c>
       <c r="L83" s="5">
-        <v>0.40625</v>
+        <v>0.4694444444444445</v>
       </c>
       <c r="M83" s="3">
-        <v>327.11829</v>
+        <v>-56.268799999999999</v>
       </c>
       <c r="N83" s="3">
-        <v>-0.18279999999999999</v>
+        <v>16.8308</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
       <c r="I84" s="3" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="K84" s="4">
-        <v>40629</v>
+        <v>40353</v>
       </c>
       <c r="L84" s="5">
-        <v>0.5493055555555556</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="M84" s="3">
-        <v>327.12549000000001</v>
+        <v>-56.268489999999986</v>
       </c>
       <c r="N84" s="3">
-        <v>-0.1915</v>
+        <v>16.831199999999999</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I85" s="3">
-        <v>1</v>
+      <c r="I85" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="K85" s="4">
-        <v>40677</v>
+        <v>40319</v>
       </c>
       <c r="L85" s="5">
-        <v>0.11127314814814815</v>
+        <v>0.5625</v>
       </c>
       <c r="M85" s="3">
-        <v>153.70688999999999</v>
+        <v>-55.431609999999978</v>
       </c>
       <c r="N85" s="3">
-        <v>-28.976780000000002</v>
+        <v>34.3277</v>
       </c>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I86" s="3">
-        <v>2</v>
+      <c r="I86" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="K86" s="4">
-        <v>40677</v>
+        <v>40319</v>
       </c>
       <c r="L86" s="5">
-        <v>0.45375000000000004</v>
+        <v>0.42083333333333334</v>
       </c>
       <c r="M86" s="3">
-        <v>153.50139999999999</v>
+        <v>-55.417390000000012</v>
       </c>
       <c r="N86" s="3">
-        <v>-29.99804</v>
+        <v>34.333799999999997</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I87" s="3">
-        <v>3</v>
+      <c r="I87" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="K87" s="4">
-        <v>40678</v>
+        <v>40355</v>
       </c>
       <c r="L87" s="5">
-        <v>3.636574074074074E-2</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="M87" s="3">
-        <v>154.00540000000001</v>
+        <v>-53.421510000000012</v>
       </c>
       <c r="N87" s="3">
-        <v>-30.00357</v>
+        <v>13.1623</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I88" s="3">
-        <v>4</v>
+      <c r="I88" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="K88" s="4">
-        <v>40678</v>
+        <v>40355</v>
       </c>
       <c r="L88" s="5">
-        <v>0.18780092592592593</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="M88" s="3">
-        <v>153.95854</v>
+        <v>-53.420720000000017</v>
       </c>
       <c r="N88" s="3">
-        <v>-30.017710000000001</v>
+        <v>13.1616</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I89" s="3">
-        <v>5</v>
+      <c r="I89" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="K89" s="4">
-        <v>40678</v>
+        <v>40318</v>
       </c>
       <c r="L89" s="5">
-        <v>0.70326388888888891</v>
+        <v>0.42152777777777778</v>
       </c>
       <c r="M89" s="3">
-        <v>155.01353</v>
+        <v>-53.31389999999999</v>
       </c>
       <c r="N89" s="3">
-        <v>-29.996919999999999</v>
+        <v>36.203499999999998</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I90" s="3">
-        <v>6</v>
+      <c r="I90" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="K90" s="4">
-        <v>40679</v>
+        <v>40318</v>
       </c>
       <c r="L90" s="5">
-        <v>0.72621527777777783</v>
+        <v>0.5625</v>
       </c>
       <c r="M90" s="3">
-        <v>156.00023999999999</v>
+        <v>-53.268100000000004</v>
       </c>
       <c r="N90" s="3">
-        <v>-30.000419999999998</v>
+        <v>36.206699999999998</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I91" s="3">
-        <v>7</v>
+      <c r="I91" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="K91" s="4">
-        <v>40680</v>
+        <v>40607</v>
       </c>
       <c r="L91" s="5">
-        <v>0.10964120370370371</v>
+        <v>0.87222222222222223</v>
       </c>
       <c r="M91" s="3">
-        <v>156.99378999999999</v>
+        <v>-52.688510000000008</v>
       </c>
       <c r="N91" s="3">
-        <v>-30.001329999999999</v>
+        <v>-49.547499999999999</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I92" s="3">
-        <v>8</v>
+      <c r="I92" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="K92" s="4">
-        <v>40680</v>
+        <v>40607</v>
       </c>
       <c r="L92" s="5">
-        <v>0.46695601851851848</v>
+        <v>0.75</v>
       </c>
       <c r="M92" s="3">
-        <v>158.00179</v>
+        <v>-52.68768</v>
       </c>
       <c r="N92" s="3">
-        <v>-29.99841</v>
+        <v>-49.546799999999998</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I93" s="3">
-        <v>9</v>
+      <c r="I93" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="K93" s="4">
-        <v>40680</v>
+        <v>40317</v>
       </c>
       <c r="L93" s="5">
-        <v>0.79973379629629626</v>
+        <v>0.42777777777777781</v>
       </c>
       <c r="M93" s="3">
-        <v>159.00241</v>
+        <v>-50.870699999999999</v>
       </c>
       <c r="N93" s="3">
-        <v>-29.998809999999999</v>
+        <v>37.523600000000002</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I94" s="3">
-        <v>11</v>
+      <c r="I94" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="K94" s="4">
-        <v>40682</v>
+        <v>40357</v>
       </c>
       <c r="L94" s="5">
-        <v>0.27868055555555554</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="M94" s="3">
-        <v>161.99986000000001</v>
+        <v>-50.468599999999981</v>
       </c>
       <c r="N94" s="3">
-        <v>-29.99738</v>
+        <v>9.5456000000000003</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I95" s="3">
-        <v>12</v>
+      <c r="I95" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="K95" s="4">
-        <v>40682</v>
+        <v>40357</v>
       </c>
       <c r="L95" s="5">
-        <v>0.63403935185185178</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="M95" s="3">
-        <v>162.99876</v>
+        <v>-50.468599999999981</v>
       </c>
       <c r="N95" s="3">
-        <v>-30.001280000000001</v>
+        <v>9.5462000000000007</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I96" s="3">
-        <v>15</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="K96" s="4">
-        <v>40684</v>
-      </c>
-      <c r="L96" s="5">
-        <v>0.35812500000000003</v>
-      </c>
-      <c r="M96" s="3">
-        <v>166.00292999999999</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-29.99905</v>
+      <c r="I96" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K96" s="7">
+        <v>40873</v>
+      </c>
+      <c r="L96" s="8">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="M96" s="6">
+        <v>-49.632999999999981</v>
+      </c>
+      <c r="N96" s="6">
+        <v>27.583100000000002</v>
       </c>
     </row>
     <row r="97" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I97" s="3">
-        <v>16</v>
+      <c r="I97" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="K97" s="4">
-        <v>40684</v>
+        <v>40873</v>
       </c>
       <c r="L97" s="5">
-        <v>0.36659722222222224</v>
+        <v>0.92291666666666661</v>
       </c>
       <c r="M97" s="3">
-        <v>166.00403</v>
+        <v>-49.632999999999981</v>
       </c>
       <c r="N97" s="3">
-        <v>-29.997150000000001</v>
+        <v>27.582999999999998</v>
       </c>
     </row>
     <row r="98" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I98" s="3">
-        <v>17</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K98" s="4">
-        <v>40684</v>
-      </c>
-      <c r="L98" s="5">
-        <v>0.63920138888888889</v>
-      </c>
-      <c r="M98" s="3">
-        <v>167.00042999999999</v>
-      </c>
-      <c r="N98" s="3">
-        <v>-30.000889999999998</v>
+      <c r="I98" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K98" s="7">
+        <v>40873</v>
+      </c>
+      <c r="L98" s="8">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="M98" s="6">
+        <v>-49.632999999999981</v>
+      </c>
+      <c r="N98" s="6">
+        <v>27.582999999999998</v>
       </c>
     </row>
     <row r="99" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I99" s="3">
-        <v>21</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K99" s="4">
-        <v>40686</v>
-      </c>
-      <c r="L99" s="5">
-        <v>0.4962847222222222</v>
-      </c>
-      <c r="M99" s="3">
-        <v>170.99788000000001</v>
-      </c>
-      <c r="N99" s="3">
-        <v>-29.997810000000001</v>
+      <c r="I99" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K99" s="7">
+        <v>40873</v>
+      </c>
+      <c r="L99" s="8">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="M99" s="6">
+        <v>-49.632600000000025</v>
+      </c>
+      <c r="N99" s="6">
+        <v>27.582899999999999</v>
       </c>
     </row>
     <row r="100" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I100" s="3">
-        <v>22</v>
+      <c r="I100" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>309</v>
+        <v>187</v>
       </c>
       <c r="K100" s="4">
-        <v>40686</v>
+        <v>40608</v>
       </c>
       <c r="L100" s="5">
-        <v>0.854375</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="M100" s="3">
-        <v>171.99994000000001</v>
+        <v>-48.879000000000019</v>
       </c>
       <c r="N100" s="3">
-        <v>-29.999459999999999</v>
+        <v>-48.967500000000001</v>
       </c>
     </row>
     <row r="101" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I101" s="3">
-        <v>23</v>
+      <c r="I101" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="K101" s="4">
-        <v>40687</v>
+        <v>40608</v>
       </c>
       <c r="L101" s="5">
-        <v>0.2508333333333333</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="M101" s="3">
-        <v>172.99978999999999</v>
+        <v>-48.793299999999988</v>
       </c>
       <c r="N101" s="3">
-        <v>-29.999749999999999</v>
+        <v>-48.9358</v>
       </c>
     </row>
     <row r="102" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I102" s="3">
-        <v>24</v>
+      <c r="I102" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>311</v>
+        <v>206</v>
       </c>
       <c r="K102" s="4">
-        <v>40687</v>
+        <v>40610</v>
       </c>
       <c r="L102" s="5">
-        <v>0.58988425925925925</v>
+        <v>0.13958333333333334</v>
       </c>
       <c r="M102" s="3">
-        <v>174.00291000000001</v>
+        <v>-47.17901999999998</v>
       </c>
       <c r="N102" s="3">
-        <v>-30.003499999999999</v>
+        <v>-46.906999999999996</v>
       </c>
     </row>
     <row r="103" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I103" s="3">
-        <v>25</v>
+      <c r="I103" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
       <c r="K103" s="4">
-        <v>40688</v>
+        <v>40610</v>
       </c>
       <c r="L103" s="5">
-        <v>1.8043981481481484E-2</v>
+        <v>0.98749999999999993</v>
       </c>
       <c r="M103" s="3">
-        <v>175.00033999999999</v>
+        <v>-45.545720000000017</v>
       </c>
       <c r="N103" s="3">
-        <v>-30.000769999999999</v>
+        <v>-44.701999999999998</v>
       </c>
     </row>
     <row r="104" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I104" s="3">
-        <v>26</v>
+      <c r="I104" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="K104" s="4">
-        <v>40688</v>
+        <v>40611</v>
       </c>
       <c r="L104" s="5">
-        <v>0.77976851851851858</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="M104" s="3">
-        <v>175.99985000000001</v>
+        <v>-45.526490000000024</v>
       </c>
       <c r="N104" s="3">
-        <v>-29.9998</v>
+        <v>-44.7117</v>
       </c>
     </row>
     <row r="105" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I105" s="3">
-        <v>28</v>
+      <c r="I105" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="K105" s="4">
-        <v>40689</v>
+        <v>40876</v>
       </c>
       <c r="L105" s="5">
-        <v>0.18894675925925927</v>
+        <v>0.875</v>
       </c>
       <c r="M105" s="3">
-        <v>176.99952999999999</v>
+        <v>-44.826509999999985</v>
       </c>
       <c r="N105" s="3">
-        <v>-30.599689999999999</v>
+        <v>26.134899999999998</v>
       </c>
     </row>
     <row r="106" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I106" s="3">
-        <v>29</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K106" s="4">
-        <v>40689</v>
-      </c>
-      <c r="L106" s="5">
-        <v>0.9000462962962964</v>
-      </c>
-      <c r="M106" s="3">
-        <v>178.00163000000001</v>
-      </c>
-      <c r="N106" s="3">
-        <v>-31.59808</v>
+      <c r="I106" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K106" s="7">
+        <v>40876</v>
+      </c>
+      <c r="L106" s="8">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="M106" s="6">
+        <v>-44.826199999999972</v>
+      </c>
+      <c r="N106" s="6">
+        <v>26.136800000000001</v>
       </c>
     </row>
     <row r="107" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I107" s="3">
-        <v>32</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K107" s="4">
-        <v>40691</v>
-      </c>
-      <c r="L107" s="5">
-        <v>0.44233796296296296</v>
-      </c>
-      <c r="M107" s="3">
-        <v>181.00066000000001</v>
-      </c>
-      <c r="N107" s="3">
-        <v>-32.500109999999999</v>
+      <c r="I107" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K107" s="7">
+        <v>40876</v>
+      </c>
+      <c r="L107" s="8">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="M107" s="6">
+        <v>-44.826199999999972</v>
+      </c>
+      <c r="N107" s="6">
+        <v>26.136800000000001</v>
       </c>
     </row>
     <row r="108" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I108" s="3">
-        <v>33</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="K108" s="4">
-        <v>40691</v>
-      </c>
-      <c r="L108" s="5">
-        <v>0.76107638888888884</v>
-      </c>
-      <c r="M108" s="3">
-        <v>182.00143</v>
-      </c>
-      <c r="N108" s="3">
-        <v>-32.5</v>
+      <c r="I108" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K108" s="7">
+        <v>40876</v>
+      </c>
+      <c r="L108" s="8">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="M108" s="6">
+        <v>-44.826199999999972</v>
+      </c>
+      <c r="N108" s="6">
+        <v>26.136800000000001</v>
       </c>
     </row>
     <row r="109" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I109" s="3">
-        <v>34</v>
+      <c r="I109" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="K109" s="4">
-        <v>40692</v>
+        <v>40612</v>
       </c>
       <c r="L109" s="5">
-        <v>0.10645833333333332</v>
+        <v>0.11319444444444444</v>
       </c>
       <c r="M109" s="3">
-        <v>183.00323</v>
+        <v>-44.031799999999976</v>
       </c>
       <c r="N109" s="3">
-        <v>-32.500950000000003</v>
+        <v>-42.363999999999997</v>
       </c>
     </row>
     <row r="110" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I110" s="3">
-        <v>35</v>
+      <c r="I110" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="K110" s="4">
-        <v>40692</v>
+        <v>40611</v>
       </c>
       <c r="L110" s="5">
-        <v>0.64853009259259264</v>
+        <v>0.96805555555555556</v>
       </c>
       <c r="M110" s="3">
-        <v>184.00279</v>
+        <v>-44.019810000000007</v>
       </c>
       <c r="N110" s="3">
-        <v>-32.500250000000001</v>
+        <v>-42.378500000000003</v>
       </c>
     </row>
     <row r="111" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I111" s="3">
-        <v>37</v>
+      <c r="I111" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="K111" s="4">
-        <v>40694</v>
+        <v>40612</v>
       </c>
       <c r="L111" s="5">
-        <v>0.71386574074074083</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="M111" s="3">
-        <v>190.00044</v>
+        <v>-42.487700000000018</v>
       </c>
       <c r="N111" s="3">
-        <v>-32.4998</v>
+        <v>-39.968499999999999</v>
       </c>
     </row>
     <row r="112" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I112" s="3">
-        <v>38</v>
+      <c r="I112" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="K112" s="4">
-        <v>40695</v>
+        <v>40308</v>
       </c>
       <c r="L112" s="5">
-        <v>0.16070601851851851</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="M112" s="3">
-        <v>188.99902</v>
+        <v>-42.447110000000009</v>
       </c>
       <c r="N112" s="3">
-        <v>-32.500079999999997</v>
-      </c>
-    </row>
-    <row r="113" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I113" s="3">
-        <v>39</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K113" s="4">
-        <v>40695</v>
-      </c>
-      <c r="L113" s="5">
-        <v>0.47990740740740739</v>
-      </c>
-      <c r="M113" s="3">
-        <v>188.00121999999999</v>
-      </c>
-      <c r="N113" s="3">
-        <v>-32.500309999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I114" s="3">
-        <v>40</v>
+        <v>49.721499999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I113" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K113" s="7">
+        <v>40308</v>
+      </c>
+      <c r="L113" s="8">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="M113" s="6">
+        <v>-42.446720000000028</v>
+      </c>
+      <c r="N113" s="6">
+        <v>49.722499999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I114" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="K114" s="4">
-        <v>40695</v>
+        <v>40613</v>
       </c>
       <c r="L114" s="5">
-        <v>0.80518518518518523</v>
+        <v>9.5138888888888884E-2</v>
       </c>
       <c r="M114" s="3">
-        <v>187.00012000000001</v>
+        <v>-42.423189999999977</v>
       </c>
       <c r="N114" s="3">
-        <v>-32.5002</v>
-      </c>
-    </row>
-    <row r="115" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I115" s="3">
-        <v>7003</v>
+        <v>-39.964799999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I115" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>324</v>
+        <v>183</v>
       </c>
       <c r="K115" s="4">
-        <v>40704</v>
+        <v>40613</v>
       </c>
       <c r="L115" s="5">
-        <v>0.96734953703703708</v>
+        <v>0.3444444444444445</v>
       </c>
       <c r="M115" s="3">
-        <v>188.006</v>
+        <v>-42.346009999999978</v>
       </c>
       <c r="N115" s="3">
-        <v>-32.4955</v>
-      </c>
-    </row>
-    <row r="116" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I116" s="3">
-        <v>7004</v>
+        <v>-39.956800000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I116" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="K116" s="4">
-        <v>40705</v>
+        <v>40614</v>
       </c>
       <c r="L116" s="5">
-        <v>0.45</v>
+        <v>0.38819444444444445</v>
       </c>
       <c r="M116" s="3">
-        <v>189.00470000000001</v>
+        <v>-41.138179999999977</v>
       </c>
       <c r="N116" s="3">
-        <v>-32.496699999999997</v>
-      </c>
-    </row>
-    <row r="117" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I117" s="3">
-        <v>7005</v>
+        <v>-37.852200000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I117" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>326</v>
+        <v>182</v>
       </c>
       <c r="K117" s="4">
-        <v>40705</v>
+        <v>40614</v>
       </c>
       <c r="L117" s="5">
-        <v>0.85069444444444453</v>
+        <v>0.24236111111111111</v>
       </c>
       <c r="M117" s="3">
-        <v>190.00480999999999</v>
+        <v>-41.130490000000009</v>
       </c>
       <c r="N117" s="3">
-        <v>-32.493699999999997</v>
-      </c>
-    </row>
-    <row r="118" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I118" s="3">
-        <v>7006</v>
+        <v>-37.838200000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I118" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="K118" s="4">
-        <v>40706</v>
+        <v>40614</v>
       </c>
       <c r="L118" s="5">
-        <v>0.80971064814814808</v>
+        <v>8.0555555555555561E-2</v>
       </c>
       <c r="M118" s="3">
-        <v>190.99770000000001</v>
+        <v>-41.12482</v>
       </c>
       <c r="N118" s="3">
-        <v>-32.499000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I119" s="3">
-        <v>7007</v>
+        <v>-37.830500000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I119" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="K119" s="4">
-        <v>40707</v>
+        <v>40879</v>
       </c>
       <c r="L119" s="5">
-        <v>0.20762731481481481</v>
+        <v>1.3194444444444444E-2</v>
       </c>
       <c r="M119" s="3">
-        <v>191.99799999999999</v>
+        <v>-40.217100000000016</v>
       </c>
       <c r="N119" s="3">
-        <v>-32.494999999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I120" s="3">
-        <v>7008</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K120" s="4">
-        <v>40707</v>
-      </c>
-      <c r="L120" s="5">
-        <v>0.65068287037037031</v>
-      </c>
-      <c r="M120" s="3">
-        <v>192.99780000000001</v>
-      </c>
-      <c r="N120" s="3">
-        <v>-32.497199999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I121" s="3">
-        <v>7009</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K121" s="4">
-        <v>40708</v>
-      </c>
-      <c r="L121" s="5">
-        <v>3.4027777777777775E-2</v>
-      </c>
-      <c r="M121" s="3">
-        <v>194.00120999999999</v>
-      </c>
-      <c r="N121" s="3">
-        <v>-32.4985</v>
-      </c>
-    </row>
-    <row r="122" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I122" s="3">
-        <v>7010</v>
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="120" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I120" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K120" s="7">
+        <v>40879</v>
+      </c>
+      <c r="L120" s="8">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="M120" s="6">
+        <v>-40.217100000000016</v>
+      </c>
+      <c r="N120" s="6">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="121" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I121" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K121" s="7">
+        <v>40879</v>
+      </c>
+      <c r="L121" s="8">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="M121" s="6">
+        <v>-40.217010000000016</v>
+      </c>
+      <c r="N121" s="6">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="122" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I122" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="K122" s="4">
-        <v>40708</v>
+        <v>40310</v>
       </c>
       <c r="L122" s="5">
-        <v>0.44444444444444442</v>
+        <v>0.71875</v>
       </c>
       <c r="M122" s="3">
-        <v>195.00771</v>
+        <v>-39.658810000000017</v>
       </c>
       <c r="N122" s="3">
-        <v>-32.495699999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I123" s="3">
-        <v>7011</v>
+        <v>46.311900000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I123" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="K123" s="4">
-        <v>40709</v>
+        <v>40310</v>
       </c>
       <c r="L123" s="5">
-        <v>0.1986111111111111</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="M123" s="3">
-        <v>196.0103</v>
+        <v>-39.657989999999984</v>
       </c>
       <c r="N123" s="3">
-        <v>-32.504300000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I124" s="3">
-        <v>7012</v>
+        <v>46.311999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I124" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="K124" s="4">
-        <v>40709</v>
+        <v>40615</v>
       </c>
       <c r="L124" s="5">
-        <v>0.8881944444444444</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="M124" s="3">
-        <v>197.00649999999999</v>
+        <v>-39.442499999999995</v>
       </c>
       <c r="N124" s="3">
-        <v>-32.506300000000003</v>
-      </c>
-    </row>
-    <row r="125" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I125" s="3">
-        <v>7013</v>
+        <v>-35.008299999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I125" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="K125" s="4">
-        <v>40710</v>
+        <v>40615</v>
       </c>
       <c r="L125" s="5">
-        <v>0.40763888888888888</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="M125" s="3">
-        <v>197.99100000000001</v>
+        <v>-39.430999999999983</v>
       </c>
       <c r="N125" s="3">
-        <v>-32.509</v>
-      </c>
-    </row>
-    <row r="126" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I126" s="3">
-        <v>7014</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="K126" s="4">
-        <v>40710</v>
-      </c>
-      <c r="L126" s="5">
-        <v>0.85972222222222217</v>
-      </c>
-      <c r="M126" s="3">
-        <v>199.00720000000001</v>
-      </c>
-      <c r="N126" s="3">
-        <v>-32.497799999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="I127" s="3">
-        <v>7015</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="K127" s="4">
-        <v>40711</v>
-      </c>
-      <c r="L127" s="5">
-        <v>0.17776620370370369</v>
-      </c>
-      <c r="M127" s="3">
-        <v>199.9922</v>
-      </c>
-      <c r="N127" s="3">
-        <v>-32.510300000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E128">
-        <f>E129-360</f>
-        <v>-157.00998999999999</v>
-      </c>
-      <c r="I128" s="3">
-        <v>7016</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K128" s="4">
-        <v>40711</v>
-      </c>
-      <c r="L128" s="5">
-        <v>0.57915509259259257</v>
-      </c>
-      <c r="M128" s="3">
-        <v>200.98070000000001</v>
-      </c>
-      <c r="N128" s="3">
-        <v>-32.463700000000003</v>
+        <v>-35.009300000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I126" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K126" s="7">
+        <v>40309</v>
+      </c>
+      <c r="L126" s="8">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="M126" s="6">
+        <v>-39.399900000000002</v>
+      </c>
+      <c r="N126" s="6">
+        <v>47.8001</v>
+      </c>
+    </row>
+    <row r="127" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I127" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K127" s="7">
+        <v>40309</v>
+      </c>
+      <c r="L127" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="M127" s="6">
+        <v>-39.399690000000021</v>
+      </c>
+      <c r="N127" s="6">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="128" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I128" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K128" s="7">
+        <v>40309</v>
+      </c>
+      <c r="L128" s="8">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="M128" s="6">
+        <v>-39.399409999999989</v>
+      </c>
+      <c r="N128" s="6">
+        <v>47.799399999999999</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -5598,23 +5594,23 @@
       <c r="F129">
         <v>-32.494399999999999</v>
       </c>
-      <c r="I129" s="3">
-        <v>7017</v>
+      <c r="I129" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="K129" s="4">
-        <v>40712</v>
+        <v>40309</v>
       </c>
       <c r="L129" s="5">
-        <v>8.7500000000000008E-2</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="M129" s="3">
-        <v>202.00549000000001</v>
+        <v>-39.398990000000026</v>
       </c>
       <c r="N129" s="3">
-        <v>-32.494999999999997</v>
+        <v>47.800699999999999</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -5636,23 +5632,23 @@
       <c r="F130" s="6">
         <v>-32.503500000000003</v>
       </c>
-      <c r="I130" s="3">
-        <v>7018</v>
+      <c r="I130" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
       <c r="K130" s="4">
-        <v>40712</v>
+        <v>40616</v>
       </c>
       <c r="L130" s="5">
-        <v>0.94027777777777777</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="M130" s="3">
-        <v>202.99119999999999</v>
+        <v>-37.463289999999972</v>
       </c>
       <c r="N130" s="3">
-        <v>-32.494</v>
+        <v>-32.085999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -5674,23 +5670,23 @@
       <c r="F131" s="6">
         <v>-32.494399999999999</v>
       </c>
-      <c r="I131" s="3">
-        <v>7019</v>
+      <c r="I131" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>340</v>
+        <v>199</v>
       </c>
       <c r="K131" s="4">
-        <v>40713</v>
+        <v>40616</v>
       </c>
       <c r="L131" s="5">
-        <v>0.35000000000000003</v>
+        <v>0.78125</v>
       </c>
       <c r="M131" s="3">
-        <v>203.98929999999999</v>
+        <v>-37.456299999999999</v>
       </c>
       <c r="N131" s="3">
-        <v>-32.503799999999998</v>
+        <v>-32.091999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -5712,23 +5708,23 @@
       <c r="F132">
         <v>-32.496000000000002</v>
       </c>
-      <c r="I132" s="3">
-        <v>7020</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K132" s="4">
-        <v>40713</v>
-      </c>
-      <c r="L132" s="5">
-        <v>0.78263888888888899</v>
-      </c>
-      <c r="M132" s="3">
-        <v>205.00069999999999</v>
-      </c>
-      <c r="N132" s="3">
-        <v>-32.499499999999998</v>
+      <c r="I132" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="K132" s="7">
+        <v>40881</v>
+      </c>
+      <c r="L132" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="M132" s="6">
+        <v>-35.867099999999994</v>
+      </c>
+      <c r="N132" s="6">
+        <v>22.333100000000002</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -5750,23 +5746,23 @@
       <c r="F133" s="6">
         <v>-32.493699999999997</v>
       </c>
-      <c r="I133" s="3">
-        <v>7021</v>
+      <c r="I133" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="K133" s="4">
-        <v>40714</v>
+        <v>40881</v>
       </c>
       <c r="L133" s="5">
-        <v>0.26944444444444443</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="M133" s="3">
-        <v>206.0018</v>
+        <v>-35.867099999999994</v>
       </c>
       <c r="N133" s="3">
-        <v>-32.501300000000001</v>
+        <v>22.332999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -5788,23 +5784,23 @@
       <c r="F134">
         <v>-32.502899999999997</v>
       </c>
-      <c r="I134" s="3">
-        <v>7022</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="K134" s="4">
-        <v>40715</v>
-      </c>
-      <c r="L134" s="5">
-        <v>4.2361111111111106E-2</v>
-      </c>
-      <c r="M134" s="3">
-        <v>206.99429000000001</v>
-      </c>
-      <c r="N134" s="3">
-        <v>-32.494</v>
+      <c r="I134" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K134" s="7">
+        <v>40881</v>
+      </c>
+      <c r="L134" s="8">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="M134" s="6">
+        <v>-35.867000000000019</v>
+      </c>
+      <c r="N134" s="6">
+        <v>22.332999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -5826,83 +5822,83 @@
       <c r="F135">
         <v>-32.494500000000002</v>
       </c>
-      <c r="I135" s="3">
-        <v>7023</v>
+      <c r="I135" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>344</v>
+        <v>198</v>
       </c>
       <c r="K135" s="4">
-        <v>40715</v>
+        <v>40617</v>
       </c>
       <c r="L135" s="5">
-        <v>0.50207175925925929</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="M135" s="3">
-        <v>208.00049999999999</v>
+        <v>-35.807799999999986</v>
       </c>
       <c r="N135" s="3">
-        <v>-32.488500000000002</v>
+        <v>-29.053799999999999</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I136" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="K136" s="7">
-        <v>40854</v>
-      </c>
-      <c r="L136" s="8">
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="M136" s="6">
-        <v>290.19922000000003</v>
-      </c>
-      <c r="N136" s="6">
-        <v>39.700200000000002</v>
+      <c r="I136" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K136" s="4">
+        <v>40617</v>
+      </c>
+      <c r="L136" s="5">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="M136" s="3">
+        <v>-35.784209999999973</v>
+      </c>
+      <c r="N136" s="3">
+        <v>-29.062000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I137" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="K137" s="7">
-        <v>40854</v>
-      </c>
-      <c r="L137" s="8">
-        <v>0.21597222222222223</v>
-      </c>
-      <c r="M137" s="6">
-        <v>290.1814</v>
-      </c>
-      <c r="N137" s="6">
-        <v>39.701700000000002</v>
+      <c r="I137" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K137" s="4">
+        <v>40619</v>
+      </c>
+      <c r="L137" s="5">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="M137" s="3">
+        <v>-34.300290000000018</v>
+      </c>
+      <c r="N137" s="3">
+        <v>-26.090499999999999</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I138" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="K138" s="7">
-        <v>40854</v>
-      </c>
-      <c r="L138" s="8">
-        <v>0.72083333333333333</v>
-      </c>
-      <c r="M138" s="6">
-        <v>290.20999</v>
-      </c>
-      <c r="N138" s="6">
-        <v>39.696800000000003</v>
+      <c r="I138" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K138" s="4">
+        <v>40619</v>
+      </c>
+      <c r="L138" s="5">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="M138" s="3">
+        <v>-34.281189999999981</v>
+      </c>
+      <c r="N138" s="3">
+        <v>-26.090199999999999</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -5925,42 +5921,42 @@
         <v>39.692399999999999</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="K139" s="4">
-        <v>40854</v>
+        <v>40619</v>
       </c>
       <c r="L139" s="5">
-        <v>0.80208333333333337</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="M139" s="3">
-        <v>290.18900000000002</v>
+        <v>-34.25848000000002</v>
       </c>
       <c r="N139" s="3">
-        <v>39.686500000000002</v>
+        <v>-26.0867</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I140" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K140" s="7">
-        <v>40854</v>
-      </c>
-      <c r="L140" s="8">
-        <v>0.91180555555555554</v>
-      </c>
-      <c r="M140" s="6">
-        <v>290.19269000000003</v>
-      </c>
-      <c r="N140" s="6">
-        <v>39.670099999999998</v>
+      <c r="I140" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K140" s="4">
+        <v>40629</v>
+      </c>
+      <c r="L140" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="M140" s="3">
+        <v>-32.881709999999998</v>
+      </c>
+      <c r="N140" s="3">
+        <v>-0.18279999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -5983,62 +5979,62 @@
         <v>38.668300000000002</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="K141" s="4">
-        <v>40858</v>
+        <v>40629</v>
       </c>
       <c r="L141" s="5">
-        <v>4.1666666666666664E-2</v>
+        <v>0.5493055555555556</v>
       </c>
       <c r="M141" s="3">
-        <v>290.89879999999999</v>
+        <v>-32.874509999999987</v>
       </c>
       <c r="N141" s="3">
-        <v>38.674300000000002</v>
+        <v>-0.1915</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I142" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="K142" s="7">
-        <v>40858</v>
-      </c>
-      <c r="L142" s="8">
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="M142" s="6">
-        <v>290.85699</v>
-      </c>
-      <c r="N142" s="6">
-        <v>38.650599999999997</v>
+      <c r="I142" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K142" s="4">
+        <v>40620</v>
+      </c>
+      <c r="L142" s="5">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="M142" s="3">
+        <v>-32.751010000000008</v>
+      </c>
+      <c r="N142" s="3">
+        <v>-22.4693</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I143" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K143" s="7">
-        <v>40858</v>
-      </c>
-      <c r="L143" s="8">
-        <v>0.55972222222222223</v>
-      </c>
-      <c r="M143" s="6">
-        <v>290.88878999999997</v>
-      </c>
-      <c r="N143" s="6">
-        <v>38.671100000000003</v>
+      <c r="I143" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K143" s="4">
+        <v>40620</v>
+      </c>
+      <c r="L143" s="5">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="M143" s="3">
+        <v>-32.748690000000011</v>
+      </c>
+      <c r="N143" s="3">
+        <v>-22.473199999999999</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -6061,105 +6057,105 @@
         <v>38.326900000000002</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>468</v>
+        <v>357</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="K144" s="4">
-        <v>40860</v>
+        <v>40620</v>
       </c>
       <c r="L144" s="5">
-        <v>0.23750000000000002</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M144" s="3">
-        <v>291.13040000000001</v>
+        <v>-32.732210000000009</v>
       </c>
       <c r="N144" s="3">
-        <v>38.3187</v>
+        <v>-22.471499999999999</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I145" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K145" s="7">
-        <v>40860</v>
-      </c>
-      <c r="L145" s="8">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="M145" s="6">
-        <v>291.13979999999998</v>
-      </c>
-      <c r="N145" s="6">
-        <v>38.345700000000001</v>
+      <c r="I145" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K145" s="4">
+        <v>40622</v>
+      </c>
+      <c r="L145" s="5">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="M145" s="3">
+        <v>-30.605189999999993</v>
+      </c>
+      <c r="N145" s="3">
+        <v>-17.017299999999999</v>
       </c>
       <c r="O145" s="6"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I146" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K146" s="7">
-        <v>40860</v>
-      </c>
-      <c r="L146" s="8">
-        <v>0.7944444444444444</v>
-      </c>
-      <c r="M146" s="6">
-        <v>291.29730000000001</v>
-      </c>
-      <c r="N146" s="6">
-        <v>38.086199999999998</v>
+      <c r="I146" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K146" s="4">
+        <v>40622</v>
+      </c>
+      <c r="L146" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="M146" s="3">
+        <v>-30.593200000000024</v>
+      </c>
+      <c r="N146" s="3">
+        <v>-17.016200000000001</v>
       </c>
       <c r="O146" s="6"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I147" s="6" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="K147" s="7">
-        <v>40860</v>
+        <v>40884</v>
       </c>
       <c r="L147" s="8">
-        <v>0.8520833333333333</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="M147" s="6">
-        <v>291.28570999999999</v>
+        <v>-29.38321000000002</v>
       </c>
       <c r="N147" s="6">
-        <v>38.0807</v>
+        <v>19.433399999999999</v>
       </c>
       <c r="O147" s="6"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I148" s="6" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K148" s="7">
-        <v>40861</v>
+        <v>40884</v>
       </c>
       <c r="L148" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>0.42083333333333334</v>
       </c>
       <c r="M148" s="6">
-        <v>291.61248999999998</v>
+        <v>-29.383089999999982</v>
       </c>
       <c r="N148" s="6">
-        <v>37.613799999999998</v>
+        <v>19.433199999999999</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
@@ -6181,63 +6177,63 @@
       <c r="F149" s="6">
         <v>37.595399999999998</v>
       </c>
-      <c r="I149" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K149" s="4">
-        <v>40861</v>
-      </c>
-      <c r="L149" s="5">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="M149" s="3">
-        <v>291.58701000000002</v>
-      </c>
-      <c r="N149" s="3">
-        <v>37.599699999999999</v>
+      <c r="I149" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K149" s="7">
+        <v>40884</v>
+      </c>
+      <c r="L149" s="8">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="M149" s="6">
+        <v>-29.383089999999982</v>
+      </c>
+      <c r="N149" s="6">
+        <v>19.433</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I150" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K150" s="7">
-        <v>40863</v>
-      </c>
-      <c r="L150" s="8">
-        <v>0.51666666666666672</v>
-      </c>
-      <c r="M150" s="6">
-        <v>293.4794</v>
-      </c>
-      <c r="N150" s="6">
-        <v>35.4176</v>
+      <c r="I150" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K150" s="4">
+        <v>40884</v>
+      </c>
+      <c r="L150" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="M150" s="3">
+        <v>-29.382999999999981</v>
+      </c>
+      <c r="N150" s="3">
+        <v>19.433</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I151" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="K151" s="7">
-        <v>40863</v>
-      </c>
-      <c r="L151" s="8">
-        <v>0.58263888888888882</v>
-      </c>
-      <c r="M151" s="6">
-        <v>293.45920000000001</v>
-      </c>
-      <c r="N151" s="6">
-        <v>35.416200000000003</v>
+      <c r="I151" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K151" s="4">
+        <v>40623</v>
+      </c>
+      <c r="L151" s="5">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="M151" s="3">
+        <v>-29.219699999999989</v>
+      </c>
+      <c r="N151" s="3">
+        <v>-12.891299999999999</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
@@ -6260,62 +6256,62 @@
         <v>35.418599999999998</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="K152" s="4">
-        <v>40863</v>
+        <v>40627</v>
       </c>
       <c r="L152" s="5">
-        <v>0.90902777777777777</v>
+        <v>0.88055555555555554</v>
       </c>
       <c r="M152" s="3">
-        <v>293.3605</v>
+        <v>-28.917210000000011</v>
       </c>
       <c r="N152" s="3">
-        <v>35.426299999999998</v>
+        <v>-2.6505000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I153" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J153" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K153" s="7">
-        <v>40867</v>
-      </c>
-      <c r="L153" s="8">
-        <v>0.14930555555555555</v>
-      </c>
-      <c r="M153" s="6">
-        <v>295.8331</v>
-      </c>
-      <c r="N153" s="6">
-        <v>31.749600000000001</v>
+      <c r="I153" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K153" s="4">
+        <v>40627</v>
+      </c>
+      <c r="L153" s="5">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="M153" s="3">
+        <v>-28.911990000000003</v>
+      </c>
+      <c r="N153" s="3">
+        <v>-2.6385000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I154" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K154" s="7">
-        <v>40867</v>
-      </c>
-      <c r="L154" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="M154" s="6">
-        <v>295.83330999999998</v>
-      </c>
-      <c r="N154" s="6">
-        <v>31.75</v>
+      <c r="I154" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K154" s="4">
+        <v>40626</v>
+      </c>
+      <c r="L154" s="5">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="M154" s="3">
+        <v>-28.463990000000024</v>
+      </c>
+      <c r="N154" s="3">
+        <v>-5.6890000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
@@ -6338,62 +6334,62 @@
         <v>31.7501</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>462</v>
+        <v>353</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="K155" s="4">
-        <v>40867</v>
+        <v>40626</v>
       </c>
       <c r="L155" s="5">
-        <v>0.47291666666666665</v>
+        <v>0.68888888888888899</v>
       </c>
       <c r="M155" s="3">
-        <v>295.815</v>
+        <v>-28.459499999999991</v>
       </c>
       <c r="N155" s="3">
-        <v>31.739899999999999</v>
+        <v>-5.6768000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I156" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="K156" s="7">
-        <v>40873</v>
-      </c>
-      <c r="L156" s="8">
-        <v>0.58124999999999993</v>
-      </c>
-      <c r="M156" s="6">
-        <v>310.36739999999998</v>
-      </c>
-      <c r="N156" s="6">
-        <v>27.582899999999999</v>
+      <c r="I156" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K156" s="4">
+        <v>40626</v>
+      </c>
+      <c r="L156" s="5">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="M156" s="3">
+        <v>-28.457209999999975</v>
+      </c>
+      <c r="N156" s="3">
+        <v>-5.6666999999999996</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I157" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="K157" s="7">
-        <v>40873</v>
-      </c>
-      <c r="L157" s="8">
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="M157" s="6">
-        <v>310.36700000000002</v>
-      </c>
-      <c r="N157" s="6">
-        <v>27.583100000000002</v>
+      <c r="I157" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K157" s="4">
+        <v>40625</v>
+      </c>
+      <c r="L157" s="5">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="M157" s="3">
+        <v>-28.001190000000008</v>
+      </c>
+      <c r="N157" s="3">
+        <v>-9.1608000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
@@ -6416,102 +6412,102 @@
         <v>27.582999999999998</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>460</v>
+        <v>354</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="K158" s="4">
-        <v>40873</v>
+        <v>40625</v>
       </c>
       <c r="L158" s="5">
-        <v>0.92291666666666661</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="M158" s="3">
-        <v>310.36700000000002</v>
+        <v>-27.998809999999992</v>
       </c>
       <c r="N158" s="3">
-        <v>27.582999999999998</v>
+        <v>-9.1475000000000009</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I159" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K159" s="7">
-        <v>40873</v>
-      </c>
-      <c r="L159" s="8">
-        <v>0.97013888888888899</v>
-      </c>
-      <c r="M159" s="6">
-        <v>310.36700000000002</v>
-      </c>
-      <c r="N159" s="6">
-        <v>27.582999999999998</v>
+      <c r="I159" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K159" s="4">
+        <v>40887</v>
+      </c>
+      <c r="L159" s="5">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="M159" s="3">
+        <v>-24.50009</v>
+      </c>
+      <c r="N159" s="3">
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I160" s="6" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K160" s="7">
-        <v>40876</v>
+        <v>40887</v>
       </c>
       <c r="L160" s="8">
-        <v>2.013888888888889E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="M160" s="6">
-        <v>315.17380000000003</v>
+        <v>-24.5</v>
       </c>
       <c r="N160" s="6">
-        <v>26.136800000000001</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I161" s="6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K161" s="7">
-        <v>40876</v>
+        <v>40887</v>
       </c>
       <c r="L161" s="8">
-        <v>0.51388888888888895</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="M161" s="6">
-        <v>315.17380000000003</v>
+        <v>-24.5</v>
       </c>
       <c r="N161" s="6">
-        <v>26.136800000000001</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I162" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="J162" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="K162" s="7">
-        <v>40876</v>
-      </c>
-      <c r="L162" s="8">
-        <v>0.64374999999999993</v>
-      </c>
-      <c r="M162" s="6">
-        <v>315.17380000000003</v>
-      </c>
-      <c r="N162" s="6">
-        <v>26.136800000000001</v>
+      <c r="I162" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K162" s="4">
+        <v>40484</v>
+      </c>
+      <c r="L162" s="5">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="M162" s="3">
+        <v>-24.499790000000019</v>
+      </c>
+      <c r="N162" s="3">
+        <v>17.399799999999999</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -6534,22 +6530,22 @@
         <v>26.136299999999999</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K163" s="4">
-        <v>40876</v>
+        <v>40484</v>
       </c>
       <c r="L163" s="5">
-        <v>0.875</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="M163" s="3">
-        <v>315.17349000000002</v>
+        <v>-24.499790000000019</v>
       </c>
       <c r="N163" s="3">
-        <v>26.134899999999998</v>
+        <v>17.399799999999999</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -6572,102 +6568,102 @@
         <v>24.149899999999999</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="K164" s="4">
-        <v>40879</v>
+        <v>40484</v>
       </c>
       <c r="L164" s="5">
-        <v>1.3194444444444444E-2</v>
+        <v>0.71875</v>
       </c>
       <c r="M164" s="3">
-        <v>319.78289999999998</v>
+        <v>-24.496219999999994</v>
       </c>
       <c r="N164" s="3">
-        <v>24.15</v>
+        <v>17.404</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I165" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K165" s="7">
-        <v>40879</v>
-      </c>
-      <c r="L165" s="8">
-        <v>0.14861111111111111</v>
-      </c>
-      <c r="M165" s="6">
-        <v>319.78289999999998</v>
-      </c>
-      <c r="N165" s="6">
-        <v>24.15</v>
+      <c r="I165" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K165" s="4">
+        <v>40484</v>
+      </c>
+      <c r="L165" s="5">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="M165" s="3">
+        <v>-24.496219999999994</v>
+      </c>
+      <c r="N165" s="3">
+        <v>17.404</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I166" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="J166" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="K166" s="7">
-        <v>40879</v>
-      </c>
-      <c r="L166" s="8">
-        <v>0.33819444444444446</v>
-      </c>
-      <c r="M166" s="6">
-        <v>319.78298999999998</v>
-      </c>
-      <c r="N166" s="6">
-        <v>24.15</v>
+      <c r="I166" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K166" s="4">
+        <v>40484</v>
+      </c>
+      <c r="L166" s="5">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="M166" s="3">
+        <v>-24.496219999999994</v>
+      </c>
+      <c r="N166" s="3">
+        <v>17.404</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I167" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="K167" s="7">
-        <v>40881</v>
-      </c>
-      <c r="L167" s="8">
-        <v>0.26597222222222222</v>
-      </c>
-      <c r="M167" s="6">
-        <v>324.13299999999998</v>
-      </c>
-      <c r="N167" s="6">
-        <v>22.332999999999998</v>
+      <c r="I167" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K167" s="4">
+        <v>40475</v>
+      </c>
+      <c r="L167" s="5">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="M167" s="3">
+        <v>-22.00009</v>
+      </c>
+      <c r="N167" s="3">
+        <v>24.0001</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I168" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J168" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="K168" s="7">
-        <v>40881</v>
-      </c>
-      <c r="L168" s="8">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="M168" s="6">
-        <v>324.13290000000001</v>
-      </c>
-      <c r="N168" s="6">
-        <v>22.333100000000002</v>
+      <c r="I168" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K168" s="4">
+        <v>40475</v>
+      </c>
+      <c r="L168" s="5">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="M168" s="3">
+        <v>-22</v>
+      </c>
+      <c r="N168" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -6690,62 +6686,62 @@
         <v>22.349900000000002</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="K169" s="4">
-        <v>40881</v>
+        <v>40475</v>
       </c>
       <c r="L169" s="5">
-        <v>0.63055555555555554</v>
+        <v>0.99444444444444446</v>
       </c>
       <c r="M169" s="3">
-        <v>324.13290000000001</v>
+        <v>-21.996609999999976</v>
       </c>
       <c r="N169" s="3">
-        <v>22.332999999999998</v>
+        <v>24.0032</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I170" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="J170" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K170" s="7">
-        <v>40884</v>
-      </c>
-      <c r="L170" s="8">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="M170" s="6">
-        <v>330.61691000000002</v>
-      </c>
-      <c r="N170" s="6">
-        <v>19.433199999999999</v>
+      <c r="I170" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K170" s="4">
+        <v>40475</v>
+      </c>
+      <c r="L170" s="5">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="M170" s="3">
+        <v>-21.996089999999981</v>
+      </c>
+      <c r="N170" s="3">
+        <v>24.0032</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I171" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="J171" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="K171" s="7">
-        <v>40884</v>
-      </c>
-      <c r="L171" s="8">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="M171" s="6">
-        <v>330.61678999999998</v>
-      </c>
-      <c r="N171" s="6">
-        <v>19.433399999999999</v>
+      <c r="I171" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K171" s="4">
+        <v>40475</v>
+      </c>
+      <c r="L171" s="5">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="M171" s="3">
+        <v>-21.995999999999981</v>
+      </c>
+      <c r="N171" s="3">
+        <v>24.0032</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -6768,42 +6764,42 @@
         <v>19.4329</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K172" s="4">
-        <v>40884</v>
+        <v>40481</v>
       </c>
       <c r="L172" s="5">
-        <v>0.7715277777777777</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="M172" s="3">
-        <v>330.61700000000002</v>
+        <v>-20.826599999999985</v>
       </c>
       <c r="N172" s="3">
-        <v>19.433</v>
+        <v>17.353200000000001</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I173" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K173" s="7">
-        <v>40884</v>
-      </c>
-      <c r="L173" s="8">
-        <v>0.91736111111111107</v>
-      </c>
-      <c r="M173" s="6">
-        <v>330.61691000000002</v>
-      </c>
-      <c r="N173" s="6">
-        <v>19.433</v>
+      <c r="I173" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K173" s="4">
+        <v>40481</v>
+      </c>
+      <c r="L173" s="5">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="M173" s="3">
+        <v>-20.826110000000028</v>
+      </c>
+      <c r="N173" s="3">
+        <v>17.360199999999999</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -6826,67 +6822,67 @@
         <v>17.399899999999999</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="K174" s="4">
-        <v>40887</v>
+        <v>40481</v>
       </c>
       <c r="L174" s="5">
-        <v>0.10555555555555556</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="M174" s="3">
-        <v>335.49991</v>
+        <v>-20.823609999999974</v>
       </c>
       <c r="N174" s="3">
-        <v>17.399999999999999</v>
+        <v>17.3521</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I175" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="J175" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K175" s="7">
-        <v>40887</v>
-      </c>
-      <c r="L175" s="8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="M175" s="6">
-        <v>335.5</v>
-      </c>
-      <c r="N175" s="6">
-        <v>17.399999999999999</v>
+      <c r="I175" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K175" s="4">
+        <v>40481</v>
+      </c>
+      <c r="L175" s="5">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="M175" s="3">
+        <v>-20.81671</v>
+      </c>
+      <c r="N175" s="3">
+        <v>17.351600000000001</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I176" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="J176" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="K176" s="7">
-        <v>40887</v>
-      </c>
-      <c r="L176" s="8">
-        <v>0.3520833333333333</v>
-      </c>
-      <c r="M176" s="6">
-        <v>335.5</v>
-      </c>
-      <c r="N176" s="6">
-        <v>17.399999999999999</v>
+      <c r="I176" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K176" s="4">
+        <v>40481</v>
+      </c>
+      <c r="L176" s="5">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="M176" s="3">
+        <v>-20.814999999999998</v>
+      </c>
+      <c r="N176" s="3">
+        <v>17.351700000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I2:N177">
-    <sortCondition ref="J2:J177"/>
+  <sortState ref="I2:N176">
+    <sortCondition ref="M2:M176"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
